--- a/PaperNotes.xlsx
+++ b/PaperNotes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\论文\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\论文\PapersNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD306E5-5FB5-4243-B683-4536892AD296}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44190496-3155-45A7-AB1E-E1E7CF0BFE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="over-smooth等" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>摘要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Composition-based Multi-Relational Graph Convolutional Networks</t>
-  </si>
-  <si>
-    <t>https://github.com/malllabiisc/CompGCN</t>
   </si>
   <si>
     <t>多关系图；有向图</t>
@@ -543,13 +540,36 @@
       </rPr>
       <t>模型。</t>
     </r>
+  </si>
+  <si>
+    <t>Hypergraph Neural Networks</t>
+  </si>
+  <si>
+    <t>AAAI 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/iMoonLab/HGNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/malllabiisc/CompGCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超图，即一条边连接多个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究超图上高阶的数据关联性；处理多模态数据缓解传统的超图学习方法具有高计算复杂度以及存储损失的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -713,6 +733,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -736,7 +763,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -763,44 +790,47 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1091,47 +1121,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="62.08203125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="11.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="27.08203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="23.4140625" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="13"/>
+    <col min="1" max="1" width="5.58203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="62.08203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="11.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34.6640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27.08203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.4140625" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+      <c r="A1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="19" t="s">
-        <v>27</v>
+      <c r="F2" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -1141,37 +1171,37 @@
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
+      <c r="A4" s="12">
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="31" x14ac:dyDescent="0.3">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -1181,13 +1211,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
@@ -1205,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297E202-346B-42B2-96E2-219E751E9F2C}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -1222,37 +1252,37 @@
     <col min="7" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="F2" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="150" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>4</v>
       </c>
@@ -1263,16 +1293,16 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="78.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="62" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>5</v>
       </c>
@@ -1303,13 +1333,33 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>17</v>
+    </row>
+    <row r="6" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1317,12 +1367,8 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" display="https://github.com/chennnM/GCNII" xr:uid="{2C030EC8-0398-4877-BC7E-EC2DBF7D46F0}"/>
-    <hyperlink ref="D5" r:id="rId2" xr:uid="{FE9722AC-4744-4E45-8BBA-F75780ECD713}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1336,90 +1382,90 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="13"/>
-    <col min="2" max="2" width="46.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="13" customWidth="1"/>
-    <col min="5" max="5" width="36.75" style="13" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="8.6640625" style="13"/>
+    <col min="1" max="1" width="8.6640625" style="12"/>
+    <col min="2" max="2" width="46.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13" style="12" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="12" customWidth="1"/>
+    <col min="5" max="5" width="36.75" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="8.6640625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="A1" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>27</v>
+      <c r="F2" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="108.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="A3" s="12">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="77.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="C4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="77.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="22"/>
-      <c r="C5" s="21"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="18"/>
       <c r="D5" s="9"/>
-      <c r="F5" s="21"/>
+      <c r="F5" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1435,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{365F3F5E-AD18-4087-94AC-231FF58C9EEB}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -1451,33 +1497,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>27</v>
+      <c r="F2" s="20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="92" x14ac:dyDescent="0.35">
@@ -1485,18 +1531,18 @@
         <v>7</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="24"/>
+      <c r="E3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B4" s="9"/>

--- a/PaperNotes.xlsx
+++ b/PaperNotes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\论文\PapersNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44190496-3155-45A7-AB1E-E1E7CF0BFE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F72F46-EFBB-48BB-9083-E9343CA8877D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
   <si>
     <t>摘要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -557,11 +557,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超图，即一条边连接多个节点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>研究超图上高阶的数据关联性；处理多模态数据缓解传统的超图学习方法具有高计算复杂度以及存储损失的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HyperGCN: A new method of training graph convolutional networks on hypergraphs</t>
+  </si>
+  <si>
+    <t>NIPS 2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/malllabiisc/HyperGCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出了HyperGCN，利用超图的谱理论在超图上训练GCN，并介绍了其变体FastHyperGCN。全面讨论了该方法与HGNN的区别与优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无向超图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无向超图，即一条边连接多个节点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,6 +839,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -828,9 +850,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1131,14 +1150,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1235,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297E202-346B-42B2-96E2-219E751E9F2C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -1253,14 +1272,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1356,10 +1375,30 @@
         <v>53</v>
       </c>
       <c r="E6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>11</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="25" t="s">
-        <v>55</v>
+      <c r="C7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1392,14 +1431,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1497,14 +1536,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">

--- a/PaperNotes.xlsx
+++ b/PaperNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\论文\PapersNote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F72F46-EFBB-48BB-9083-E9343CA8877D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4540132B-F9A0-4705-9A05-B2297C985623}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5070" yWindow="4450" windowWidth="10800" windowHeight="6710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="over-smooth等" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>摘要</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,60 +113,6 @@
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>COMPGCN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模型利用知识图谱嵌入技术中的各种组合操作，实现图卷积神经网络上的多关系信息合并，以及节点和关系的共同嵌入；可推广其他已有的多关系</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="3"/>
-      </rPr>
-      <t>GCN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>方法，并且可根据关系数量进行缩放调整；在节点分类、链接预测以及图分类任务中，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="3"/>
-      </rPr>
-      <t>COMPGCN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模型具有有效性。</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,22 +191,6 @@
         <family val="2"/>
       </rPr>
       <t>摘要</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>该模型采用为每一个输入文本构建一张图</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。对于一个文本级的图而言，其将所有出现在该文本中的词视为词节点，不存在文本节点，并且词节点将在更小的上下文滑窗内进行相互连接。词节点的表示和边的权重是全局共享且不断更新的。最终的文本表示被计算为该图中所有词节点表示的总和，从而预测标签结果。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -557,10 +487,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究超图上高阶的数据关联性；处理多模态数据缓解传统的超图学习方法具有高计算复杂度以及存储损失的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HyperGCN: A new method of training graph convolutional networks on hypergraphs</t>
   </si>
   <si>
@@ -572,15 +498,219 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>提出了HyperGCN，利用超图的谱理论在超图上训练GCN，并介绍了其变体FastHyperGCN。全面讨论了该方法与HGNN的区别与优势。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无向超图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>无向超图，即一条边连接多个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line Hypergraph Convolution Network:Applying Graph Convolution for Hypergraphs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArXiv 2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://bit.ly/2qNmbRn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该模型采用为每一个输入文本构建一张图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。对于一个文本级的图而言，其将所有出现在该文本中的词视为词节点，不存在文本节点，并且词节点将在更小的上下文滑窗内进行相互连接。词节点的表示和边的权重是全局共享且不断更新的。最终的文本表示被计算为该图中所有词节点表示的总和，从而预测标签结果。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>研究超图上高阶的数据关联性；处理多模态数据缓解传统的超图学习方法具有高计算复杂度以及存储损失的问题。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首次在超图上引入线图的概念，在超边大小可变的超图上实现图卷积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>COMPGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型利用知识图谱嵌入技术中的各种组合操作，实现图卷积神经网络上的多关系信息合并，以及节点和关系的共同嵌入；可推广其他已有的多关系</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>方法，并且可根据关系数量进行缩放调整；在节点分类、链接预测以及图分类任务中，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>COMPGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模型具有有效性。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提出了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HyperGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，利用超图的谱理论在超图上训练</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，并介绍了其变体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>FastHyperGCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。全面讨论了该方法与</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>HGNN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的区别与优势。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无向超图；线图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +718,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,12 +807,6 @@
       <color rgb="FF333333"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -782,7 +906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -794,61 +918,64 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1150,27 +1277,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>32</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>0</v>
@@ -1190,13 +1317,13 @@
         <v>3</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="73" customHeight="1" x14ac:dyDescent="0.3">
@@ -1207,13 +1334,13 @@
         <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>5</v>
@@ -1230,13 +1357,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.3">
@@ -1254,10 +1381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E297E202-346B-42B2-96E2-219E751E9F2C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.3"/>
@@ -1272,30 +1399,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="A1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="23" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>26</v>
@@ -1312,10 +1439,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
@@ -1352,10 +1479,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>16</v>
@@ -1366,39 +1493,59 @@
         <v>10</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>55</v>
+      <c r="E6" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="F6" s="22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="79" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>12</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="D8" s="9" t="s">
         <v>60</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1431,30 +1578,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="A1" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" s="8" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>26</v>
@@ -1474,10 +1621,10 @@
         <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="77.5" x14ac:dyDescent="0.3">
@@ -1494,10 +1641,10 @@
         <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.5" x14ac:dyDescent="0.2">
@@ -1536,30 +1683,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="A1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" s="7" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="F2" s="20" t="s">
         <v>26</v>
@@ -1579,7 +1726,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F3" s="21"/>
     </row>
